--- a/Annotations/New/TheBladeItself.xlsx
+++ b/Annotations/New/TheBladeItself.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23112" windowHeight="17760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23112" windowHeight="17760"/>
   </bookViews>
   <sheets>
     <sheet name="bladeitself" sheetId="1" r:id="rId1"/>
@@ -1231,13 +1231,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="C94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="58" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.5546875" style="2" customWidth="1"/>
@@ -1303,7 +1304,7 @@
     <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A33" ca="1" si="0">RAND()</f>
-        <v>0.38993512499112459</v>
+        <v>0.86358362163379621</v>
       </c>
       <c r="B2" s="2">
         <v>189</v>
@@ -1327,7 +1328,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.30730520220943E-2</v>
+        <v>8.5693118483300412E-2</v>
       </c>
       <c r="B3" s="2">
         <v>112</v>
@@ -1351,7 +1352,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46790122550084079</v>
+        <v>0.3030887122189686</v>
       </c>
       <c r="B4" s="2">
         <v>122</v>
@@ -1375,7 +1376,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8682287785200411</v>
+        <v>0.81098773641305821</v>
       </c>
       <c r="B5" s="2">
         <v>101</v>
@@ -1396,7 +1397,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1384093011809351E-2</v>
+        <v>0.44250429309502359</v>
       </c>
       <c r="B6" s="2">
         <v>142</v>
@@ -1420,7 +1421,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48268127537730099</v>
+        <v>5.0825211604316967E-2</v>
       </c>
       <c r="B7" s="2">
         <v>183</v>
@@ -1441,7 +1442,7 @@
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82756613550594793</v>
+        <v>0.13896738409049181</v>
       </c>
       <c r="B8" s="2">
         <v>194</v>
@@ -1462,7 +1463,7 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78370284364654019</v>
+        <v>0.21252688727900859</v>
       </c>
       <c r="B9" s="2">
         <v>200</v>
@@ -1483,7 +1484,7 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14264701946958813</v>
+        <v>1.6123291166971088E-2</v>
       </c>
       <c r="B10" s="2">
         <v>199</v>
@@ -1507,7 +1508,7 @@
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63229013849247739</v>
+        <v>0.79091166512108757</v>
       </c>
       <c r="B11" s="2">
         <v>173</v>
@@ -1531,7 +1532,7 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8284454786153167</v>
+        <v>5.7416169241739645E-3</v>
       </c>
       <c r="B12" s="2">
         <v>105</v>
@@ -1552,7 +1553,7 @@
     <row r="13" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61016673668520671</v>
+        <v>0.22752175375051342</v>
       </c>
       <c r="B13" s="2">
         <v>163</v>
@@ -1576,7 +1577,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29175865410986757</v>
+        <v>0.17344744585665528</v>
       </c>
       <c r="B14" s="2">
         <v>178</v>
@@ -1600,7 +1601,7 @@
     <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72741471475724406</v>
+        <v>0.44133380125994548</v>
       </c>
       <c r="B15" s="2">
         <v>171</v>
@@ -1621,7 +1622,7 @@
     <row r="16" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91211179911327622</v>
+        <v>1.2398598217155721E-2</v>
       </c>
       <c r="B16" s="2">
         <v>188</v>
@@ -1642,7 +1643,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90101687415504705</v>
+        <v>0.91761332095137205</v>
       </c>
       <c r="B17" s="2">
         <v>104</v>
@@ -1663,7 +1664,7 @@
     <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78698596519099184</v>
+        <v>0.38330871842452396</v>
       </c>
       <c r="B18" s="2">
         <v>119</v>
@@ -1687,7 +1688,7 @@
     <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6714877778601035</v>
+        <v>0.3311302208740029</v>
       </c>
       <c r="B19" s="2">
         <v>130</v>
@@ -1711,7 +1712,7 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12842939801936404</v>
+        <v>0.2442901054212</v>
       </c>
       <c r="B20" s="2">
         <v>149</v>
@@ -1735,7 +1736,7 @@
     <row r="21" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21057260598068206</v>
+        <v>7.7954832714789979E-2</v>
       </c>
       <c r="B21" s="2">
         <v>166</v>
@@ -1756,7 +1757,7 @@
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81810190297926255</v>
+        <v>0.93380581031254617</v>
       </c>
       <c r="B22" s="2">
         <v>192</v>
@@ -1780,7 +1781,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32142152642705812</v>
+        <v>0.30074101976648693</v>
       </c>
       <c r="B23" s="2">
         <v>159</v>
@@ -1801,7 +1802,7 @@
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34390485347263144</v>
+        <v>0.13691511508191112</v>
       </c>
       <c r="B24" s="2">
         <v>185</v>
@@ -1825,7 +1826,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89217000243076516</v>
+        <v>9.8924498327368826E-2</v>
       </c>
       <c r="B25" s="2">
         <v>124</v>
@@ -1849,7 +1850,7 @@
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42773445105113961</v>
+        <v>0.92347589308030142</v>
       </c>
       <c r="B26" s="2">
         <v>170</v>
@@ -1870,7 +1871,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9242782407623058E-2</v>
+        <v>0.31583169986421855</v>
       </c>
       <c r="B27" s="2">
         <v>147</v>
@@ -1894,7 +1895,7 @@
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10547630464569091</v>
+        <v>0.84428525045075509</v>
       </c>
       <c r="B28" s="2">
         <v>118</v>
@@ -1918,7 +1919,7 @@
     <row r="29" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1425728708379719E-3</v>
+        <v>0.28457361847691709</v>
       </c>
       <c r="B29" s="2">
         <v>191</v>
@@ -1942,7 +1943,7 @@
     <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66829576189423789</v>
+        <v>0.39502296702387518</v>
       </c>
       <c r="B30" s="2">
         <v>151</v>
@@ -1966,7 +1967,7 @@
     <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9257251712961464</v>
+        <v>0.52089451738069048</v>
       </c>
       <c r="B31" s="2">
         <v>172</v>
@@ -1990,7 +1991,7 @@
     <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68933046157901745</v>
+        <v>0.32642492197521555</v>
       </c>
       <c r="B32" s="2">
         <v>160</v>
@@ -2011,7 +2012,7 @@
     <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20916724497618078</v>
+        <v>0.85414943792750864</v>
       </c>
       <c r="B33" s="2">
         <v>150</v>
@@ -2035,7 +2036,7 @@
     <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ref="A34:A65" ca="1" si="1">RAND()</f>
-        <v>0.83109155146474856</v>
+        <v>0.22769415199093113</v>
       </c>
       <c r="B34" s="2">
         <v>177</v>
@@ -2059,7 +2060,7 @@
     <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6942974188400894E-2</v>
+        <v>0.11396846532231542</v>
       </c>
       <c r="B35" s="2">
         <v>176</v>
@@ -2080,7 +2081,7 @@
     <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60913850483164345</v>
+        <v>0.48748341554441987</v>
       </c>
       <c r="B36" s="2">
         <v>158</v>
@@ -2101,7 +2102,7 @@
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19963623243349304</v>
+        <v>0.87611829319300116</v>
       </c>
       <c r="B37" s="2">
         <v>111</v>
@@ -2122,7 +2123,7 @@
     <row r="38" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58565502170679318</v>
+        <v>0.33267648325686039</v>
       </c>
       <c r="B38" s="2">
         <v>164</v>
@@ -2146,7 +2147,7 @@
     <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11609988777462599</v>
+        <v>0.30729664777367305</v>
       </c>
       <c r="B39" s="2">
         <v>125</v>
@@ -2167,7 +2168,7 @@
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51927038608452913</v>
+        <v>0.9789210674342651</v>
       </c>
       <c r="B40" s="2">
         <v>196</v>
@@ -2191,7 +2192,7 @@
     <row r="41" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17447629614419458</v>
+        <v>0.82762392675603613</v>
       </c>
       <c r="B41" s="2">
         <v>152</v>
@@ -2215,7 +2216,7 @@
     <row r="42" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0885723826135432E-2</v>
+        <v>0.94203148780423496</v>
       </c>
       <c r="B42" s="2">
         <v>116</v>
@@ -2239,7 +2240,7 @@
     <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69487557453794402</v>
+        <v>0.93271843076808825</v>
       </c>
       <c r="B43" s="2">
         <v>137</v>
@@ -2260,7 +2261,7 @@
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23768980389453753</v>
+        <v>0.53126868327606513</v>
       </c>
       <c r="B44" s="2">
         <v>139</v>
@@ -2284,7 +2285,7 @@
     <row r="45" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20596930887577192</v>
+        <v>0.32933620306903988</v>
       </c>
       <c r="B45" s="2">
         <v>107</v>
@@ -2308,7 +2309,7 @@
     <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.086301225131463E-2</v>
+        <v>0.35674169373827902</v>
       </c>
       <c r="B46" s="2">
         <v>131</v>
@@ -2332,7 +2333,7 @@
     <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69849706780675003</v>
+        <v>0.34085147338349675</v>
       </c>
       <c r="B47" s="2">
         <v>135</v>
@@ -2356,7 +2357,7 @@
     <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47464450081084697</v>
+        <v>0.85374898244969233</v>
       </c>
       <c r="B48" s="2">
         <v>182</v>
@@ -2380,7 +2381,7 @@
     <row r="49" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14405017202784098</v>
+        <v>0.64381174745128666</v>
       </c>
       <c r="B49" s="2">
         <v>129</v>
@@ -2404,7 +2405,7 @@
     <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45017779480984277</v>
+        <v>0.47423048973614412</v>
       </c>
       <c r="B50" s="2">
         <v>145</v>
@@ -2428,7 +2429,7 @@
     <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70749712820616828</v>
+        <v>0.63752702184820564</v>
       </c>
       <c r="B51" s="2">
         <v>156</v>
@@ -2452,7 +2453,7 @@
     <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69339613327243232</v>
+        <v>0.30264542599964539</v>
       </c>
       <c r="B52" s="2">
         <v>143</v>
@@ -2476,7 +2477,7 @@
     <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76183816606491117</v>
+        <v>0.6904103660012979</v>
       </c>
       <c r="B53" s="2">
         <v>132</v>
@@ -2497,7 +2498,7 @@
     <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8225190055304483E-2</v>
+        <v>0.90271410324182</v>
       </c>
       <c r="B54" s="2">
         <v>115</v>
@@ -2521,7 +2522,7 @@
     <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49459329838574018</v>
+        <v>0.94224731078515434</v>
       </c>
       <c r="B55" s="2">
         <v>113</v>
@@ -2542,7 +2543,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85117317822198102</v>
+        <v>0.10417318395246589</v>
       </c>
       <c r="B56" s="2">
         <v>187</v>
@@ -2563,7 +2564,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80589868113554863</v>
+        <v>0.91705912828880864</v>
       </c>
       <c r="B57" s="2">
         <v>103</v>
@@ -2584,7 +2585,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36651466404195976</v>
+        <v>0.51912274101116185</v>
       </c>
       <c r="B58" s="2">
         <v>184</v>
@@ -2608,7 +2609,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22905726769374601</v>
+        <v>0.9614415057940171</v>
       </c>
       <c r="B59" s="2">
         <v>148</v>
@@ -2632,7 +2633,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58300568683833498</v>
+        <v>0.78003628551100224</v>
       </c>
       <c r="B60" s="2">
         <v>144</v>
@@ -2656,7 +2657,7 @@
     <row r="61" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.7295495419976832E-2</v>
+        <v>6.8552660887211125E-2</v>
       </c>
       <c r="B61" s="2">
         <v>169</v>
@@ -2677,7 +2678,7 @@
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4150039009945331</v>
+        <v>0.80030264154927611</v>
       </c>
       <c r="B62" s="2">
         <v>127</v>
@@ -2701,7 +2702,7 @@
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41991347523107703</v>
+        <v>0.76700938754018944</v>
       </c>
       <c r="B63" s="2">
         <v>146</v>
@@ -2725,7 +2726,7 @@
     <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93044898131239229</v>
+        <v>4.9550450517551026E-2</v>
       </c>
       <c r="B64" s="2">
         <v>161</v>
@@ -2749,7 +2750,7 @@
     <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42144055514770062</v>
+        <v>0.68716878974814188</v>
       </c>
       <c r="B65" s="2">
         <v>106</v>
@@ -2773,7 +2774,7 @@
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A97" ca="1" si="2">RAND()</f>
-        <v>0.41802150404929872</v>
+        <v>0.54091039294738785</v>
       </c>
       <c r="B66" s="2">
         <v>162</v>
@@ -2797,7 +2798,7 @@
     <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13346927013057808</v>
+        <v>0.90244030748667281</v>
       </c>
       <c r="B67" s="2">
         <v>121</v>
@@ -2821,7 +2822,7 @@
     <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96356489285923141</v>
+        <v>0.99991924229136286</v>
       </c>
       <c r="B68" s="2">
         <v>102</v>
@@ -2845,7 +2846,7 @@
     <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70614037804183416</v>
+        <v>0.461977129377244</v>
       </c>
       <c r="B69" s="2">
         <v>179</v>
@@ -2866,7 +2867,7 @@
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54574401923341909</v>
+        <v>0.48744250987712656</v>
       </c>
       <c r="B70" s="2">
         <v>114</v>
@@ -2890,7 +2891,7 @@
     <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83516584834559204</v>
+        <v>0.32801956426302548</v>
       </c>
       <c r="B71" s="2">
         <v>167</v>
@@ -2914,7 +2915,7 @@
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89313253372559909</v>
+        <v>2.4312726550922314E-2</v>
       </c>
       <c r="B72" s="2">
         <v>198</v>
@@ -2935,7 +2936,7 @@
     <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47693645739047041</v>
+        <v>0.75349071081816843</v>
       </c>
       <c r="B73" s="2">
         <v>117</v>
@@ -2959,7 +2960,7 @@
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56153000214601134</v>
+        <v>0.20165612557811541</v>
       </c>
       <c r="B74" s="2">
         <v>123</v>
@@ -2980,7 +2981,7 @@
     <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61419503470976633</v>
+        <v>0.46792876776864578</v>
       </c>
       <c r="B75" s="2">
         <v>168</v>
@@ -3004,7 +3005,7 @@
     <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5844871931801241</v>
+        <v>0.30006235328838626</v>
       </c>
       <c r="B76" s="2">
         <v>140</v>
@@ -3028,7 +3029,7 @@
     <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39586936876794832</v>
+        <v>0.27437857374196528</v>
       </c>
       <c r="B77" s="2">
         <v>155</v>
@@ -3052,7 +3053,7 @@
     <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37960505164241676</v>
+        <v>0.49498911689475877</v>
       </c>
       <c r="B78" s="2">
         <v>128</v>
@@ -3076,7 +3077,7 @@
     <row r="79" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98769141548977002</v>
+        <v>0.23101688050217195</v>
       </c>
       <c r="B79" s="2">
         <v>99</v>
@@ -3100,7 +3101,7 @@
     <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53132075155218061</v>
+        <v>0.88542808829467612</v>
       </c>
       <c r="B80" s="2">
         <v>197</v>
@@ -3121,7 +3122,7 @@
     <row r="81" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0804384748235814E-2</v>
+        <v>0.79863179177245047</v>
       </c>
       <c r="B81" s="2">
         <v>138</v>
@@ -3145,7 +3146,7 @@
     <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17551136857088434</v>
+        <v>0.9548531410231017</v>
       </c>
       <c r="B82" s="2">
         <v>133</v>
@@ -3166,7 +3167,7 @@
     <row r="83" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55678141153738236</v>
+        <v>0.88186850318478383</v>
       </c>
       <c r="B83" s="2">
         <v>180</v>
@@ -3196,7 +3197,7 @@
     <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58253335706595677</v>
+        <v>0.7693916753909732</v>
       </c>
       <c r="B84" s="2">
         <v>175</v>
@@ -3220,7 +3221,7 @@
     <row r="85" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69603023259146135</v>
+        <v>0.39086836735749653</v>
       </c>
       <c r="B85" s="2">
         <v>110</v>
@@ -3244,7 +3245,7 @@
     <row r="86" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43883792821005252</v>
+        <v>0.64772040689472232</v>
       </c>
       <c r="B86" s="2">
         <v>195</v>
@@ -3271,7 +3272,7 @@
     <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43185032776813626</v>
+        <v>0.87290489905487934</v>
       </c>
       <c r="B87" s="2">
         <v>126</v>
@@ -3295,7 +3296,7 @@
     <row r="88" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80554247745104379</v>
+        <v>0.78684568792547338</v>
       </c>
       <c r="B88" s="2">
         <v>108</v>
@@ -3319,7 +3320,7 @@
     <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76324916161712575</v>
+        <v>0.73048701914744008</v>
       </c>
       <c r="B89" s="2">
         <v>134</v>
@@ -3343,7 +3344,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86780947457797697</v>
+        <v>0.91273862537286377</v>
       </c>
       <c r="B90" s="2">
         <v>186</v>
@@ -3367,7 +3368,7 @@
     <row r="91" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70725373744399356</v>
+        <v>0.49155252074622091</v>
       </c>
       <c r="B91" s="2">
         <v>109</v>
@@ -3391,7 +3392,7 @@
     <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89946213489848825</v>
+        <v>0.35813900302077539</v>
       </c>
       <c r="B92" s="2">
         <v>190</v>
@@ -3412,7 +3413,7 @@
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8858036126515465</v>
+        <v>0.75954459090349891</v>
       </c>
       <c r="B93" s="2">
         <v>120</v>
@@ -3436,7 +3437,7 @@
     <row r="94" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74686186724726411</v>
+        <v>2.2004071277294424E-2</v>
       </c>
       <c r="B94" s="2">
         <v>193</v>
@@ -3460,7 +3461,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8483737315681501</v>
+        <v>0.39944881984670133</v>
       </c>
       <c r="B95" s="2">
         <v>136</v>
@@ -3481,7 +3482,7 @@
     <row r="96" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78409952570630526</v>
+        <v>7.1871491574927782E-2</v>
       </c>
       <c r="B96" s="2">
         <v>154</v>
@@ -3511,7 +3512,7 @@
     <row r="97" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43304687165459776</v>
+        <v>0.51504604438854595</v>
       </c>
       <c r="B97" s="2">
         <v>174</v>
@@ -3532,7 +3533,7 @@
     <row r="98" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ref="A98:A103" ca="1" si="3">RAND()</f>
-        <v>0.56247401473400371</v>
+        <v>2.6266839146807941E-3</v>
       </c>
       <c r="B98" s="2">
         <v>153</v>
@@ -3556,7 +3557,7 @@
     <row r="99" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83365163750147309</v>
+        <v>0.37241943196983185</v>
       </c>
       <c r="B99" s="2">
         <v>165</v>
@@ -3580,7 +3581,7 @@
     <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37937550939019804</v>
+        <v>0.38401064142704699</v>
       </c>
       <c r="B100" s="2">
         <v>157</v>
@@ -3601,7 +3602,7 @@
     <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56415768406336464</v>
+        <v>0.17259739584874501</v>
       </c>
       <c r="B101" s="2">
         <v>100</v>
@@ -3622,7 +3623,7 @@
     <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55046810761031928</v>
+        <v>0.36746981025075953</v>
       </c>
       <c r="B102" s="2">
         <v>181</v>
@@ -3646,7 +3647,7 @@
     <row r="103" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83344870840267715</v>
+        <v>8.6352341531746091E-2</v>
       </c>
       <c r="B103" s="2">
         <v>141</v>
@@ -3764,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A191" sqref="A104:XFD191"/>
     </sheetView>
   </sheetViews>
